--- a/docs/reports/Report_MW_Ricerca.xlsx
+++ b/docs/reports/Report_MW_Ricerca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279D5594-8D55-4F3A-8A60-DBE9F000D520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9AD064-B656-40B2-B733-25CEA7F94EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
   </bookViews>
@@ -734,7 +734,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +781,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="7">
         <f>D14</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5">
         <f>E14</f>
@@ -1085,19 +1085,19 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="24">
-        <f>SUM(D9:D9)</f>
-        <v>2</v>
+        <f>SUM(D9:D13)</f>
+        <v>11</v>
       </c>
       <c r="E14" s="24">
-        <f>SUM(E9:E9)</f>
+        <f>SUM(E9:E13)</f>
         <v>0</v>
       </c>
       <c r="F14" s="24">
-        <f>SUM(F9:F9)</f>
+        <f>SUM(F9:F13)</f>
         <v>0</v>
       </c>
       <c r="G14" s="24">
-        <f>SUM(G9:G9)</f>
+        <f>SUM(G9:G13)</f>
         <v>0</v>
       </c>
       <c r="H14" s="24" t="e">
@@ -1155,6 +1155,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4CC4A3791A662489B933DCE278ED9EF" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d351c8bae9503a674d5e918810dcd44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="181236b5-734f-48d7-9705-1caf32a498ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2248fde6c30a2cffba19c8b5d271a5ad" ns3:_="">
     <xsd:import namespace="181236b5-734f-48d7-9705-1caf32a498ff"/>
@@ -1332,12 +1338,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
   <ds:schemaRefs>
@@ -1347,6 +1347,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C945D8A9-5771-40CB-B9B4-CC69662F48BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1362,20 +1378,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/reports/Report_MW_Ricerca.xlsx
+++ b/docs/reports/Report_MW_Ricerca.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\eul0711\Documents\GitHub\matrix-web-fe-tests\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9AD064-B656-40B2-B733-25CEA7F94EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A8E917-06C2-46DF-B355-73F9C733AF32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15780" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
   </bookViews>
   <sheets>
     <sheet name="Funzionalità 29.01" sheetId="9" r:id="rId1"/>
@@ -734,7 +734,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,9 +795,9 @@
         <f>G14</f>
         <v>0</v>
       </c>
-      <c r="G3" s="28" t="e">
+      <c r="G3" s="28">
         <f>H14</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -816,9 +816,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="e">
+      <c r="G4" s="21">
         <f>G3/$C$3</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -882,9 +882,9 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H9" s="5">
+        <f>IF('Funzionalità 29.01'!D9-D9&lt;0, 0, 'Funzionalità 29.01'!D9-D9)</f>
+        <v>0</v>
       </c>
       <c r="I9" s="17">
         <f>E9/D9</f>
@@ -898,9 +898,9 @@
         <f>G9/D9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="17" t="e">
+      <c r="L9" s="17">
         <f>H9/D9</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -926,9 +926,9 @@
       <c r="G10" s="29">
         <v>0</v>
       </c>
-      <c r="H10" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H10" s="29">
+        <f>IF('Funzionalità 29.01'!D10-D10&lt;0, 0, 'Funzionalità 29.01'!D10-D10)</f>
+        <v>0</v>
       </c>
       <c r="I10" s="17">
         <f>E10/D10</f>
@@ -942,9 +942,9 @@
         <f>G10/D10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="17" t="e">
+      <c r="L10" s="17">
         <f>H10/D10</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -970,9 +970,9 @@
       <c r="G11" s="29">
         <v>0</v>
       </c>
-      <c r="H11" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H11" s="29">
+        <f>IF('Funzionalità 29.01'!D11-D11&lt;0, 0, 'Funzionalità 29.01'!D11-D11)</f>
+        <v>0</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" ref="I11:I13" si="4">E11/D11</f>
@@ -986,9 +986,9 @@
         <f t="shared" ref="K11:K13" si="6">G11/D11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="17" t="e">
+      <c r="L11" s="17">
         <f t="shared" ref="L11:L13" si="7">H11/D11</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,9 +1014,9 @@
       <c r="G12" s="29">
         <v>0</v>
       </c>
-      <c r="H12" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H12" s="29">
+        <f>IF('Funzionalità 29.01'!D12-D12&lt;0, 0, 'Funzionalità 29.01'!D12-D12)</f>
+        <v>0</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="4"/>
@@ -1030,9 +1030,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L12" s="17" t="e">
+      <c r="L12" s="17">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,9 +1058,9 @@
       <c r="G13" s="29">
         <v>0</v>
       </c>
-      <c r="H13" s="29" t="e">
-        <f>IF('Funzionalità 29.01'!#REF!-#REF!&lt;0, 0, 'Funzionalità 29.01'!#REF!-#REF!)</f>
-        <v>#REF!</v>
+      <c r="H13" s="29">
+        <f>IF('Funzionalità 29.01'!D13-D13&lt;0, 0, 'Funzionalità 29.01'!D13-D13)</f>
+        <v>0</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="4"/>
@@ -1074,9 +1074,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L13" s="17" t="e">
+      <c r="L13" s="17">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1100,9 +1100,9 @@
         <f>SUM(G9:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="24" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="H14" s="29">
+        <f>IF('Funzionalità 29.01'!D14-D14&lt;0, 0, 'Funzionalità 29.01'!D14-D14)</f>
+        <v>0</v>
       </c>
       <c r="I14" s="25">
         <f>E14/D14</f>
@@ -1116,9 +1116,9 @@
         <f>G14/D14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="25" t="e">
+      <c r="L14" s="25">
         <f t="shared" ref="L14" si="8">H14/D14</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1146,18 +1146,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1339,14 +1339,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1358,6 +1350,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/reports/Report_MW_Ricerca.xlsx
+++ b/docs/reports/Report_MW_Ricerca.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\eul0711\Documents\GitHub\matrix-web-fe-tests\docs\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A8E917-06C2-46DF-B355-73F9C733AF32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E8C6D3-74F3-4005-A19D-96BE7DE02658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15780" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
+    <workbookView xWindow="-19260" yWindow="780" windowWidth="19320" windowHeight="15480" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
   </bookViews>
   <sheets>
     <sheet name="Funzionalità 29.01" sheetId="9" r:id="rId1"/>
@@ -734,7 +734,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9:H14"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,21 +1146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4CC4A3791A662489B933DCE278ED9EF" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d351c8bae9503a674d5e918810dcd44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="181236b5-734f-48d7-9705-1caf32a498ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2248fde6c30a2cffba19c8b5d271a5ad" ns3:_="">
     <xsd:import namespace="181236b5-734f-48d7-9705-1caf32a498ff"/>
@@ -1338,31 +1323,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C945D8A9-5771-40CB-B9B4-CC69662F48BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1378,4 +1354,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/reports/Report_MW_Ricerca.xlsx
+++ b/docs/reports/Report_MW_Ricerca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E8C6D3-74F3-4005-A19D-96BE7DE02658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E74EC83-720E-4A85-B7CB-322EED7F9298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19260" yWindow="780" windowWidth="19320" windowHeight="15480" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
+    <workbookView xWindow="28740" yWindow="-5025" windowWidth="15870" windowHeight="25320" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
   </bookViews>
   <sheets>
     <sheet name="Funzionalità 29.01" sheetId="9" r:id="rId1"/>
@@ -734,7 +734,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +781,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="7">
         <f>D14</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5">
         <f>E14</f>
@@ -959,7 +959,7 @@
         <v>KO</v>
       </c>
       <c r="D11" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="27">
         <v>0</v>
@@ -1086,7 +1086,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="24">
         <f>SUM(D9:D13)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="24">
         <f>SUM(E9:E13)</f>
@@ -1146,6 +1146,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4CC4A3791A662489B933DCE278ED9EF" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d351c8bae9503a674d5e918810dcd44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="181236b5-734f-48d7-9705-1caf32a498ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2248fde6c30a2cffba19c8b5d271a5ad" ns3:_="">
     <xsd:import namespace="181236b5-734f-48d7-9705-1caf32a498ff"/>
@@ -1323,22 +1338,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C945D8A9-5771-40CB-B9B4-CC69662F48BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1354,28 +1378,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/reports/Report_MW_Ricerca.xlsx
+++ b/docs/reports/Report_MW_Ricerca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E74EC83-720E-4A85-B7CB-322EED7F9298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DCDD69-083C-4A2A-B6CF-BB0638A20032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-5025" windowWidth="15870" windowHeight="25320" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
+    <workbookView xWindow="-19260" yWindow="780" windowWidth="19320" windowHeight="15480" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
   </bookViews>
   <sheets>
     <sheet name="Funzionalità 29.01" sheetId="9" r:id="rId1"/>
@@ -781,7 +781,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="7">
         <f>D14</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5">
         <f>E14</f>
@@ -959,7 +959,7 @@
         <v>KO</v>
       </c>
       <c r="D11" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="27">
         <v>0</v>
@@ -1086,7 +1086,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="24">
         <f>SUM(D9:D13)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="24">
         <f>SUM(E9:E13)</f>
@@ -1146,18 +1146,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1339,6 +1339,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655DB771-77BE-4CAC-8E6B-689F7EC99628}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1350,14 +1358,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
